--- a/target/DatosExcel/DatosEmitirDictamenPropuestaCredito.xlsx
+++ b/target/DatosExcel/DatosEmitirDictamenPropuestaCredito.xlsx
@@ -38,13 +38,13 @@
     <t>Observacion</t>
   </si>
   <si>
-    <t>4873568</t>
-  </si>
-  <si>
     <t>Aprobado</t>
   </si>
   <si>
-    <t>4873479</t>
+    <t>4873593</t>
+  </si>
+  <si>
+    <t>4873585</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -410,7 +410,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>

--- a/target/DatosExcel/DatosEmitirDictamenPropuestaCredito.xlsx
+++ b/target/DatosExcel/DatosEmitirDictamenPropuestaCredito.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
